--- a/Notes/7_node_bottleneck.xlsx
+++ b/Notes/7_node_bottleneck.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kshitijbhatta/Desktop/Powergrid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67DF4D60-885E-3842-AB29-B1923C7A8D4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4D055E-5160-C643-B72D-FA1054E0F509}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="460" windowWidth="27640" windowHeight="16240" xr2:uid="{3D656B8B-53B6-1943-9194-3F6DBF2878CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -224,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -247,6 +247,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CEF6C1E-3305-314A-A364-9C8825A118F1}">
   <dimension ref="A4:U75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="S55" sqref="S55"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -684,13 +686,13 @@
       <c r="J8" s="1">
         <v>1.1102230246251565E-16</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N8" s="2" t="s">
+      <c r="L8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" s="8" t="s">
         <v>16</v>
       </c>
       <c r="O8" s="2" t="s">
@@ -699,7 +701,7 @@
       <c r="P8" s="2">
         <v>0</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="9">
         <v>0</v>
       </c>
     </row>
@@ -734,22 +736,22 @@
       <c r="J9" s="1">
         <v>-2.2204460492503131E-16</v>
       </c>
-      <c r="L9" s="2">
-        <v>4.12566378</v>
-      </c>
-      <c r="M9" s="2">
+      <c r="L9">
+        <v>4.1256637795036477</v>
+      </c>
+      <c r="M9" s="8">
         <v>4.2947250959999996</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="8">
         <v>7.0993794100000001</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="8">
         <v>0.71301059600000005</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9" s="8">
         <v>0.631126666</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9" s="8">
         <v>1.6433379779999999</v>
       </c>
     </row>
@@ -784,22 +786,22 @@
       <c r="J10" s="1">
         <v>3.8335941268202523E-17</v>
       </c>
-      <c r="L10" s="2">
-        <v>-0.70710678100000002</v>
-      </c>
-      <c r="M10" s="2">
+      <c r="L10">
+        <v>-0.70710678118654791</v>
+      </c>
+      <c r="M10" s="8">
         <v>-0.95345029599999997</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="8">
         <v>2.34323272</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10" s="8">
         <v>0.31819805200000001</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10" s="8">
         <v>1.414213562</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q10" s="8">
         <v>-1.414213562</v>
       </c>
     </row>
@@ -834,22 +836,22 @@
       <c r="J11" s="1">
         <v>-1.4142135623730949</v>
       </c>
-      <c r="L11" s="2">
-        <v>-0.70710678100000002</v>
-      </c>
-      <c r="M11" s="2">
+      <c r="L11">
+        <v>-0.70710678118654846</v>
+      </c>
+      <c r="M11" s="8">
         <v>-1.0107784099999999</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="8">
         <v>1.8782994200000001</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11" s="8">
         <v>0.25980762099999999</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11" s="8">
         <v>1.7320508080000001</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q11" s="8">
         <v>-2.1213203439999999</v>
       </c>
     </row>
@@ -884,22 +886,22 @@
       <c r="J12" s="1">
         <v>-1.4988010832439613E-15</v>
       </c>
-      <c r="L12" s="2">
-        <v>0.39268014800000001</v>
-      </c>
-      <c r="M12" s="2">
+      <c r="L12">
+        <v>0.39268014804123885</v>
+      </c>
+      <c r="M12" s="8">
         <v>0.56945121300000001</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12" s="8">
         <v>1.7736443</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O12" s="8">
         <v>0.24623358300000001</v>
       </c>
-      <c r="P12" s="2">
+      <c r="P12" s="8">
         <v>1.8275330059999999</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="Q12" s="8">
         <v>1.31150335</v>
       </c>
     </row>
@@ -934,22 +936,22 @@
       <c r="J13" s="1">
         <v>1.3448407558738075E-16</v>
       </c>
-      <c r="L13" s="2">
-        <v>-0.61237243600000002</v>
-      </c>
-      <c r="M13" s="2">
+      <c r="L13">
+        <v>-0.61237243569579436</v>
+      </c>
+      <c r="M13" s="8">
         <v>-0.908823041</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13" s="8">
         <v>1.6121334199999999</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O13" s="8">
         <v>0.22500000000000001</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P13" s="8">
         <v>2</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="Q13" s="8">
         <v>-2.449489743</v>
       </c>
     </row>
@@ -983,6 +985,24 @@
       </c>
       <c r="J14" s="1">
         <v>-8.3266726846886741E-17</v>
+      </c>
+      <c r="L14">
+        <v>0.19744972552966547</v>
+      </c>
+      <c r="M14" s="8">
+        <v>0.30276589199999998</v>
+      </c>
+      <c r="N14" s="8">
+        <v>1.3967045899999999</v>
+      </c>
+      <c r="O14" s="8">
+        <v>0.196175719</v>
+      </c>
+      <c r="P14" s="8">
+        <v>2.2938618630000001</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>1.038941409</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="31">
